--- a/content/ensino/segundo-semestre-de-2022/mes-10-dia-23-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-10-dia-23-ava-matc65.xlsx
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         <v>219216006</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -711,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -781,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,7 +798,7 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -830,7 +830,7 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1374,10 +1374,10 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
